--- a/biology/Zoologie/Aegodontia/Aegodontia.xlsx
+++ b/biology/Zoologie/Aegodontia/Aegodontia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antilopinae l. s. · Égondontes, Antilopinés l. s.
 Les Égondontes (Aegodontia) sont un clade qui regroupe l'ensemble des Bovidés autres que les Bovinés. Il regroupe la plupart de ce qu'on appelle communément « antilopes », ainsi que les Caprins. Leur nom signifie « à dents de chèvre ».
-Dans les dernières classifications, ce clade correspond à la sous-famille Antilopinae l. s. dans un sens nettement élargi par rapport à son acception classique[1].
+Dans les dernières classifications, ce clade correspond à la sous-famille Antilopinae l. s. dans un sens nettement élargi par rapport à son acception classique.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce groupe très diversifiée compte huit sous-familles (ou tribus) bien distinctes d'antilopes, et la sous-famille (ou tribu) des Caprinés qui regroupe les ovins et les caprins. Ces derniers sont par ailleurs quasiment absents du continent africain. La taille des espèces varie fortement, de 1,5 à près de 300 kg. L'origine commune est détectable dans les similitudes des motifs de la robe de ces membres[2]. Les cornes de ce groupe sont annelées transversalement, et il y a presque toujours des glandes proéminentes sous les yeux et entre les doigts des pattes antérieures[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe très diversifiée compte huit sous-familles (ou tribus) bien distinctes d'antilopes, et la sous-famille (ou tribu) des Caprinés qui regroupe les ovins et les caprins. Ces derniers sont par ailleurs quasiment absents du continent africain. La taille des espèces varie fortement, de 1,5 à près de 300 kg. L'origine commune est détectable dans les similitudes des motifs de la robe de ces membres. Les cornes de ce groupe sont annelées transversalement, et il y a presque toujours des glandes proéminentes sous les yeux et entre les doigts des pattes antérieures.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021)[4] :
-La divergence entre Boodontia et Aegodontia remonterait à environ 23 Ma[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
+La divergence entre Boodontia et Aegodontia remonterait à environ 23 Ma,.
 </t>
         </is>
       </c>
